--- a/Test_Results_01-16-2026.xlsx
+++ b/Test_Results_01-16-2026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,351 +476,2826 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46014.20833333334</v>
+        <v>46015.20833333334</v>
       </c>
       <c r="B2" t="n">
-        <v>53.65</v>
+        <v>1.544</v>
       </c>
       <c r="C2" t="n">
-        <v>53.63</v>
+        <v>1.566</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.03727865796830931</v>
+        <v>1.424870466321249</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5412231643514342</v>
+        <v>-0.1671224551807904</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003291483813932516</v>
+        <v>0.03448418595770197</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>VSME</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46015.20833333334</v>
+        <v>46021.20833333334</v>
       </c>
       <c r="B3" t="n">
-        <v>53.63</v>
+        <v>1.72</v>
       </c>
       <c r="C3" t="n">
-        <v>54.25</v>
+        <v>2.012</v>
       </c>
       <c r="D3" t="n">
-        <v>1.156069364161838</v>
+        <v>16.97674418604651</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1973802260900714</v>
+        <v>-0.9674818597151469</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005785018223197436</v>
+        <v>0.02883449233804103</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>VSME</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46020.20833333334</v>
+        <v>46030.20833333334</v>
       </c>
       <c r="B4" t="n">
-        <v>53.77</v>
+        <v>1.608</v>
       </c>
       <c r="C4" t="n">
-        <v>54.38</v>
+        <v>1.87</v>
       </c>
       <c r="D4" t="n">
-        <v>1.134461595685332</v>
+        <v>16.29353233830846</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2530730296457007</v>
+        <v>0.9508598595995954</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00345418300946021</v>
+        <v>0.02847798743511443</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>VSME</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46022.20833333334</v>
+        <v>46014.20833333334</v>
       </c>
       <c r="B5" t="n">
-        <v>53.14</v>
+        <v>0.5827</v>
       </c>
       <c r="C5" t="n">
-        <v>56.54</v>
+        <v>0.6198</v>
       </c>
       <c r="D5" t="n">
-        <v>6.398193451260825</v>
+        <v>6.366912648017853</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2921307285010055</v>
+        <v>-0.2921348314606775</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01537227257585294</v>
+        <v>0.002077616035516483</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>VCIG</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46030.20833333334</v>
+        <v>46022.20833333334</v>
       </c>
       <c r="B6" t="n">
-        <v>61.09</v>
+        <v>0.5286</v>
       </c>
       <c r="C6" t="n">
-        <v>63.67</v>
+        <v>0.599</v>
       </c>
       <c r="D6" t="n">
-        <v>4.223277132100178</v>
+        <v>13.31819901626941</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.3041144901610005</v>
+        <v>2.102437933348233</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03151390120308795</v>
+        <v>0.02701636854363476</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>VCIG</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46036.20833333334</v>
+        <v>46027.20833333334</v>
       </c>
       <c r="B7" t="n">
-        <v>64.56999999999999</v>
+        <v>0.6038</v>
       </c>
       <c r="C7" t="n">
-        <v>63.81</v>
+        <v>0.665</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.177017190645802</v>
+        <v>10.13580655846307</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4062788550323049</v>
+        <v>-2.66581360631265</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01076283144746004</v>
+        <v>0.01914984265488107</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>VCIG</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46020.20833333334</v>
+        <v>46008.20833333334</v>
       </c>
       <c r="B8" t="n">
-        <v>2.42</v>
+        <v>5.97</v>
       </c>
       <c r="C8" t="n">
-        <v>2.48</v>
+        <v>6.13</v>
       </c>
       <c r="D8" t="n">
-        <v>2.479338842975198</v>
+        <v>2.680067001675046</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7619901389511519</v>
+        <v>0.4952793685188084</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01361748878088753</v>
+        <v>0.01127795971058354</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>ABEV</t>
+          <t>POET</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46024.20833333334</v>
+        <v>46022.20833333334</v>
       </c>
       <c r="B9" t="n">
-        <v>2.47</v>
+        <v>6.33</v>
       </c>
       <c r="C9" t="n">
-        <v>2.51</v>
+        <v>7.16</v>
       </c>
       <c r="D9" t="n">
-        <v>1.61943319838056</v>
+        <v>13.11216429699842</v>
       </c>
       <c r="E9" t="n">
-        <v>2.716319824753555</v>
+        <v>1.39174258577246</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02102437933348233</v>
+        <v>0.019466285697327</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>ABEV</t>
+          <t>POET</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46027.20833333334</v>
+        <v>46035.20833333334</v>
       </c>
       <c r="B10" t="n">
-        <v>2.51</v>
+        <v>7.14</v>
       </c>
       <c r="C10" t="n">
-        <v>2.51</v>
+        <v>8.09</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>13.30532212885154</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.66581360631265</v>
+        <v>0.2054895053574146</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01096886626372995</v>
+        <v>0.01084756450527391</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>ABEV</t>
+          <t>POET</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46035.20833333334</v>
+        <v>46009.20833333334</v>
       </c>
       <c r="B11" t="n">
-        <v>2.57</v>
+        <v>0.5786</v>
       </c>
       <c r="C11" t="n">
-        <v>2.61</v>
+        <v>0.6223</v>
       </c>
       <c r="D11" t="n">
-        <v>1.556420233463029</v>
+        <v>7.55271344624957</v>
       </c>
       <c r="E11" t="n">
-        <v>2.255319148936175</v>
+        <v>0.836315387398967</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01424255502805338</v>
+        <v>0.02243382616360667</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>ABEV</t>
+          <t>KALA</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46009.20833333334</v>
+        <v>46014.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>222.82</v>
+        <v>0.57</v>
       </c>
       <c r="C12" t="n">
-        <v>226.82</v>
+        <v>0.6402</v>
       </c>
       <c r="D12" t="n">
-        <v>1.79517099003681</v>
+        <v>12.31578947368421</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5500550055005604</v>
+        <v>0.249920660107894</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004995146382275495</v>
+        <v>0.02238337729926354</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>KALA</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46013.20833333334</v>
+        <v>46027.20833333334</v>
       </c>
       <c r="B13" t="n">
-        <v>227.91</v>
+        <v>0.616</v>
       </c>
       <c r="C13" t="n">
-        <v>228.79</v>
+        <v>0.6585</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3861173270150564</v>
+        <v>6.899350649350655</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1988430947216235</v>
+        <v>1.325525264115845</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003947162528939119</v>
+        <v>0.02408872023861552</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>KALA</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46015.20833333334</v>
+        <v>46014.20833333334</v>
       </c>
       <c r="B14" t="n">
-        <v>229.89</v>
+        <v>13.49</v>
       </c>
       <c r="C14" t="n">
-        <v>229.98</v>
+        <v>13.51</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03914915829310583</v>
+        <v>0.148257968865817</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1973802260900714</v>
+        <v>0.6057142857142761</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0006043292002257949</v>
+        <v>0.002343304843304805</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>SGML</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>46015.20833333334</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7.327905255366396</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.3294331477905366</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.004574563168484591</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>SGML</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>46022.20833333334</v>
+      </c>
+      <c r="B16" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14.21</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7.733131159969675</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.1491509866911378</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.01427147475168133</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>SGML</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>46035.20833333334</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="C17" t="n">
+        <v>16.59</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6.688102893890679</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5807333181507612</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.008735227205352025</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>SGML</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>46010.20833333334</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D18" t="n">
+        <v>15.81920903954801</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.2170188463734957</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.03564859350395511</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>RZLT</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>46017.20833333334</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-8.988764044943808</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.3761112377479003</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.02225311377756922</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>RZLT</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>46035.20833333334</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="D20" t="n">
+        <v>9.677419354838722</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5807333181507612</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.01366315279545638</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>RZLT</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>46008.20833333334</v>
+      </c>
+      <c r="B21" t="n">
+        <v>100.89</v>
+      </c>
+      <c r="C21" t="n">
+        <v>102.59</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.685003469124791</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.07802848039535348</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.02471680094886874</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>SATS</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>46014.20833333334</v>
+      </c>
+      <c r="B22" t="n">
+        <v>106.76</v>
+      </c>
+      <c r="C22" t="n">
+        <v>106.95</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1779692768827168</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5226143622169221</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.01747484071264971</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>SATS</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>46017.20833333334</v>
+      </c>
+      <c r="B23" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="C23" t="n">
+        <v>108.55</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.793560606060619</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.1537968599807815</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.01422734220698674</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>SATS</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>46027.20833333334</v>
+      </c>
+      <c r="B24" t="n">
+        <v>110.67</v>
+      </c>
+      <c r="C24" t="n">
+        <v>116.06</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.870335230866552</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.967234262125905</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.01043819621723496</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>SATS</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>46029.20833333334</v>
+      </c>
+      <c r="B25" t="n">
+        <v>112.16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>116.95</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4.270684736091312</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.9645496680445897</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.04353436056590909</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>SATS</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>46035.20833333334</v>
+      </c>
+      <c r="B26" t="n">
+        <v>123.74</v>
+      </c>
+      <c r="C26" t="n">
+        <v>131.09</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5.939873929206407</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7145591425290254</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.01441520540961849</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>SATS</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>46015.20833333334</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.8725</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.1475</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7.101355713363455</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.04666355576294912</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.04888187649174258</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>BIYA</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>46027.20833333334</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7.981220657276999</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.8425378885178469</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.04355667893421566</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>BIYA</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>46029.20833333334</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.4964</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4.083333333333328</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.7937326048860882</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.04930504333650076</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>BIYA</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>46008.20833333334</v>
+      </c>
+      <c r="B30" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="C30" t="n">
+        <v>76.37</v>
+      </c>
+      <c r="D30" t="n">
+        <v>6.010549694614098</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.4952793685188084</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.01319837181687933</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>AFRM</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>46010.20833333334</v>
+      </c>
+      <c r="B31" t="n">
+        <v>76.22</v>
+      </c>
+      <c r="C31" t="n">
+        <v>78.56999999999999</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.08318026764629</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.69020744356314</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.01166687885248074</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>AFRM</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>46030.20833333334</v>
+      </c>
+      <c r="B32" t="n">
+        <v>81.61</v>
+      </c>
+      <c r="C32" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.2328146060531777</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9508598595995954</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.02391912965442666</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>AFRM</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>46008.20833333334</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5423</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.5728</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5.624193250968101</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.4783599088838297</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.01950151743970363</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>OSRH</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>46022.20833333334</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5641</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.5894</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4.485020386456307</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.1491509866911378</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.01422033359064068</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>OSRH</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>46027.20833333334</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5889</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.884870096790636</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0.2058083695403501</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.00578914532862751</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>OSRH</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>46030.20833333334</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="D36" t="n">
+        <v>6.430868167202575</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.6639954207212417</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.006116815474708215</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>OSRH</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>46036.20833333334</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.7341</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.7818000000000001</v>
+      </c>
+      <c r="D37" t="n">
+        <v>6.49775234981611</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-0.02264236386277929</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.01632087948154803</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>OSRH</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>46008.20833333334</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.4295</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.4336</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.9545983701979122</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.542434894899203</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.03401512192162592</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>AIRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>46022.20833333334</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.4172</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.466</v>
+      </c>
+      <c r="D39" t="n">
+        <v>11.69702780441035</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.2292144196707646</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.03079597846316173</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>AIRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>46029.20833333334</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.4425</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.598870056497171</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-1.5628199003617</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.03826967307878115</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>AIRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>46035.20833333334</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4588</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.4724</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.96425457715781</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-1.215182960131078</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.03965923392171411</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>AIRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>46008.20833333334</v>
+      </c>
+      <c r="B42" t="n">
+        <v>140.24</v>
+      </c>
+      <c r="C42" t="n">
+        <v>145.88</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.021677124928691</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.542434894899203</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.01019095985691343</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>ALAB</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>46014.20833333334</v>
+      </c>
+      <c r="B43" t="n">
+        <v>168.83</v>
+      </c>
+      <c r="C43" t="n">
+        <v>169.97</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.6752354439376829</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.2398081534772389</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.02739801153180399</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>ALAB</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>46017.20833333334</v>
+      </c>
+      <c r="B44" t="n">
+        <v>167.26</v>
+      </c>
+      <c r="C44" t="n">
+        <v>170.105</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.700944637091961</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-0.4504197092745521</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.01751610221433064</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>ALAB</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>46022.20833333334</v>
+      </c>
+      <c r="B45" t="n">
+        <v>166.36</v>
+      </c>
+      <c r="C45" t="n">
+        <v>179.56</v>
+      </c>
+      <c r="D45" t="n">
+        <v>7.934599663380615</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.2292144196707646</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.01632033408920308</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>ALAB</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>46030.20833333334</v>
+      </c>
+      <c r="B46" t="n">
+        <v>156.73</v>
+      </c>
+      <c r="C46" t="n">
+        <v>162.61</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3.751674854845932</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.324181919023837</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0389051906326261</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>ALAB</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>46036.20833333334</v>
+      </c>
+      <c r="B47" t="n">
+        <v>172.14</v>
+      </c>
+      <c r="C47" t="n">
+        <v>174.45</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.341930986406425</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.5252246026261398</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.03448086867073186</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>ALAB</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46008.20833333334</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.8837</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.9117</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3.168496095960149</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.1647446457990198</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.03539485140522336</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>MVIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>46013.20833333334</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.9308999999999999</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.9315</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.06445375443120405</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.1988430947216235</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.02001136507574963</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>MVIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>46015.20833333334</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.9067</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.9108000000000001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.4521892577478814</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.1973802260900714</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.03203595681796423</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>MVIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>46028.20833333334</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.9207</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.9246</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.4235907461713984</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-1.400709219858154</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.02304442695921471</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>MVIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>46031.20833333334</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.9217</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5.891287837691217</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-0.789520904360308</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.02285190096607137</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>MVIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>46009.20833333334</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="D53" t="n">
+        <v>13.81215469613259</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.836315387398967</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.01687460161273346</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>SATL</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>46021.20833333334</v>
       </c>
-      <c r="B15" t="n">
-        <v>229.74</v>
-      </c>
-      <c r="C15" t="n">
-        <v>228.49</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-0.5440933228867406</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="B54" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.081081081081092</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0.7539410555174819</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.02401005885966623</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>SATL</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>46035.20833333334</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.521008403361358</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.7040367323512431</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.01050671864324204</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>SATL</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>46021.20833333334</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.3597122302158251</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-0.565262076053441</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.04120562290453333</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>RVPH</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>46028.20833333334</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.3231</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.3462</v>
+      </c>
+      <c r="D57" t="n">
+        <v>7.149489322191283</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.9931051932443591</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.04530563574550517</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>RVPH</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>46034.20833333334</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="D58" t="n">
+        <v>9.230769230769219</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-0.4066590418096205</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.04456262830604252</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>RVPH</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>46009.20833333334</v>
+      </c>
+      <c r="B59" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="C59" t="n">
+        <v>19.67</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3.363110877561737</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.836315387398967</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.02552317721597996</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>46015.20833333334</v>
+      </c>
+      <c r="B60" t="n">
+        <v>19.83</v>
+      </c>
+      <c r="C60" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.865859808371151</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-0.5104665426773902</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.02565191596068495</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>46024.20833333334</v>
+      </c>
+      <c r="B61" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="C61" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4.557498675145721</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.58774821127099</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.02731883565860305</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>46030.20833333334</v>
+      </c>
+      <c r="B62" t="n">
+        <v>21.01</v>
+      </c>
+      <c r="C62" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="D62" t="n">
+        <v>6.853879105187999</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.7588957292755882</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.02776666586807441</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>46036.20833333334</v>
+      </c>
+      <c r="B63" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="C63" t="n">
+        <v>25.22</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5.96638655462185</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.88149245792013</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.02801938830253337</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>46008.20833333334</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="D64" t="n">
+        <v>10.90047393364928</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.4952793685188084</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.03571258603977334</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>SLS</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>46010.20833333334</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="D65" t="n">
+        <v>11.86440677966103</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.69020744356314</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.001155748268022894</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>SLS</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>46021.20833333334</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="D66" t="n">
+        <v>13.89728096676737</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0.9674818597151469</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.008153868460801794</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>SLS</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>46029.20833333334</v>
+      </c>
+      <c r="B67" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-4.455445544554459</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.6580177216136462</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.007433225811416144</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>SLS</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>46036.20833333334</v>
+      </c>
+      <c r="B68" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-6.569343065693445</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.9887212538450152</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.01169344927044158</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>SLS</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>46008.20833333334</v>
+      </c>
+      <c r="B69" t="n">
+        <v>18.09</v>
+      </c>
+      <c r="C69" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2.819237147595355</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.5945639864099572</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.009929645924422803</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>XPEV</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>46015.20833333334</v>
+      </c>
+      <c r="B70" t="n">
+        <v>19.57</v>
+      </c>
+      <c r="C70" t="n">
+        <v>20.78</v>
+      </c>
+      <c r="D70" t="n">
+        <v>6.182933060807372</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-0.5104665426773902</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.009098191372652442</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>XPEV</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>46020.20833333334</v>
+      </c>
+      <c r="B71" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>21.28</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3.804878048780491</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-0.740355370577872</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.007349285892511714</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>XPEV</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>46029.20833333334</v>
+      </c>
+      <c r="B72" t="n">
+        <v>19.88</v>
+      </c>
+      <c r="C72" t="n">
+        <v>20.52</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3.219315895372232</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.092062000939409</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.009094078165217789</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>XPEV</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>46008.20833333334</v>
+      </c>
+      <c r="B73" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="C73" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.914580265095722</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-1.451540866458234</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.03522245903292764</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>TMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>46021.20833333334</v>
+      </c>
+      <c r="B74" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="C74" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.3252032520325132</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-0.5560498220640531</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.03451863556672674</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>TMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>46031.20833333334</v>
+      </c>
+      <c r="B75" t="n">
+        <v>7</v>
+      </c>
+      <c r="C75" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="D75" t="n">
+        <v>6.857142857142873</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-0.70709235054639</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.03304878738198891</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>TMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>46035.20833333334</v>
+      </c>
+      <c r="B76" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="C76" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="D76" t="n">
+        <v>6.830601092896171</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2.255319148936175</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.03563292935960416</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>TMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>46013.20833333334</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="C77" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="D77" t="n">
+        <v>4.042179261862899</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.1988430947216235</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.01573353802208033</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>NB</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>46031.20833333334</v>
+      </c>
+      <c r="B78" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C78" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D78" t="n">
+        <v>9.523809523809534</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-0.789520904360308</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0186979855331727</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>NB</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>46035.20833333334</v>
+      </c>
+      <c r="B79" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="C79" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.252252252252251</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-0.1475198229762054</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.01561096825434272</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>NB</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>46009.20833333334</v>
+      </c>
+      <c r="B80" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="C80" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="D80" t="n">
+        <v>3.253796095444672</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.6692222727568087</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.01573754976121833</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>EXK</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>46015.20833333334</v>
+      </c>
+      <c r="B81" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C81" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2.962206332992867</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.1604621309371002</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.01833098233184671</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>EXK</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>46030.20833333334</v>
+      </c>
+      <c r="B82" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="C82" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="D82" t="n">
+        <v>8.588957055214719</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-0.5122691626612719</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.02011640808145898</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>EXK</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>46008.20833333334</v>
+      </c>
+      <c r="B83" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="C83" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2.561475409836067</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-0.1647446457990198</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.02479200886960775</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>BTDR</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>46021.20833333334</v>
+      </c>
+      <c r="B84" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="C84" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3.317972350230436</v>
+      </c>
+      <c r="E84" t="n">
         <v>-0.7430228343602741</v>
       </c>
-      <c r="F15" t="n">
-        <v>0.002234475040572947</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>ABBV</t>
+      <c r="F84" t="n">
+        <v>0.01110563333990666</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>BTDR</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>46029.20833333334</v>
+      </c>
+      <c r="B85" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C85" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2.000000000000002</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.5214889408379664</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.02525773653993146</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>BTDR</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>46031.20833333334</v>
+      </c>
+      <c r="B86" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="C86" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="D86" t="n">
+        <v>6.602953953084278</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-0.789520904360308</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.01571418331663388</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>BTDR</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>46022.20833333334</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D87" t="n">
+        <v>4.385964912280715</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.4586563307493297</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.01158875854981045</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>CGC</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>46029.20833333334</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D88" t="n">
+        <v>8.40336134453783</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-0.9645496680445897</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.001456475661257173</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>CGC</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>46034.20833333334</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.62601626016261</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-0.4066590418096205</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.000444981247218923</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>CGC</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>46014.20833333334</v>
+      </c>
+      <c r="B90" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="C90" t="n">
+        <v>17.16</v>
+      </c>
+      <c r="D90" t="n">
+        <v>7.518796992481191</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.249920660107894</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.03839608424132879</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>PATH</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>46024.20833333334</v>
+      </c>
+      <c r="B91" t="n">
+        <v>15.88</v>
+      </c>
+      <c r="C91" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.9445843828715494</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.58774821127099</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.04176001838514132</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>PATH</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>46031.20833333334</v>
+      </c>
+      <c r="B92" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="C92" t="n">
+        <v>17.24</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5.637254901960764</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.4880298197748045</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.04076431274299275</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>PATH</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>46036.20833333334</v>
+      </c>
+      <c r="B93" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="C93" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-3.773584905660377</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.88149245792013</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.04461081190710681</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>PATH</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>46008.20833333334</v>
+      </c>
+      <c r="B94" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="C94" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="D94" t="n">
+        <v>6.801909307875875</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.7680445102960398</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.004359768153804011</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>ARRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>46014.20833333334</v>
+      </c>
+      <c r="B95" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="C95" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2.104208416833653</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.3424657534246478</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.01126982182732983</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>ARRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>46022.20833333334</v>
+      </c>
+      <c r="B96" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="C96" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="D96" t="n">
+        <v>4.989154013015185</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.3101977510663101</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.01151241108511569</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>ARRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>46008.20833333334</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-0.5952380952380931</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.4783599088838297</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.0223454816822094</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>PALI</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>46009.20833333334</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D98" t="n">
+        <v>9.580838323353301</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-0.759464973928814</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.01073598004121923</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>PALI</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>46017.20833333334</v>
+      </c>
+      <c r="B99" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="D99" t="n">
+        <v>15.34883720930234</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.3761112377479003</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.01943294124936745</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>PALI</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>46035.20833333334</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="D100" t="n">
+        <v>3.174603174603186</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.5807333181507612</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.006974119455133598</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>PALI</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>46008.20833333334</v>
+      </c>
+      <c r="B101" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="C101" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D101" t="n">
+        <v>3.89016018306636</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-1.451540866458234</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.01754336253466504</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>UAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>46022.20833333334</v>
+      </c>
+      <c r="B102" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="C102" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="D102" t="n">
+        <v>6.438631790744465</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2.102437933348233</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.02751343174044896</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>UAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>46035.20833333334</v>
+      </c>
+      <c r="B103" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="C103" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D103" t="n">
+        <v>3.386809269162194</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2.255319148936175</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.01066473749674746</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>UAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>46010.20833333334</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="C104" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="D104" t="n">
+        <v>8.579881656804744</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.2323480056796168</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.01548987668651247</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>ABSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>46020.20833333334</v>
+      </c>
+      <c r="B105" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="C105" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.159420289855073</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-0.08343495282715496</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.03207547677834333</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>ABSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>46031.20833333334</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3.335</v>
+      </c>
+      <c r="C106" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.949025487256373</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.0444981247218923</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.02540056418734071</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>ABSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>46035.20833333334</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="C107" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.208459214501523</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.7145591425290254</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.02240399781719782</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>ABSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>46008.20833333334</v>
+      </c>
+      <c r="B108" t="n">
+        <v>20.79</v>
+      </c>
+      <c r="C108" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="D108" t="n">
+        <v>5.242905242905249</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.5945639864099572</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.01558525049364023</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>QXO</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>46010.20833333334</v>
+      </c>
+      <c r="B109" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C109" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.7339449541284404</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.11248454882571</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.01201946100378848</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>QXO</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>46029.20833333334</v>
+      </c>
+      <c r="B110" t="n">
+        <v>23.38</v>
+      </c>
+      <c r="C110" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="D110" t="n">
+        <v>5.431993156544057</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.092062000939409</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.02267783290198877</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>QXO</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>46034.20833333334</v>
+      </c>
+      <c r="B111" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="C111" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.451612903225796</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-0.05736137667302632</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.01288029819774805</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>QXO</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>46008.20833333334</v>
+      </c>
+      <c r="B112" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="C112" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="D112" t="n">
+        <v>5.281445448227928</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.542434894899203</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.01779043305338601</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>CIFR</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>46021.20833333334</v>
+      </c>
+      <c r="B113" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="C113" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.165181631254275</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-0.9903032803796119</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.0293398758641783</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>CIFR</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>46031.20833333334</v>
+      </c>
+      <c r="B114" t="n">
+        <v>16.63</v>
+      </c>
+      <c r="C114" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="D114" t="n">
+        <v>6.313890559230306</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.4379062606910678</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.0084079823322325</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>CIFR</t>
         </is>
       </c>
     </row>
